--- a/Texts/Город Сокровищ/Все персонажи/Шеймин 1 (Проводник).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шеймин 1 (Проводник).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="174">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -310,6 +310,237 @@
   </si>
   <si>
     <t>SCRIPT/D73P29A/us3101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/enter09.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, Team [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so glad that you\'ve decided\nto climb this mountain again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A mountain is really something\nspecial, isn\'t it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can forget all your\nworries and troubles here…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m not sure why, but everyone\nhere is honest and openhearted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s really strange…</t>
+  </si>
+  <si>
+    <t>That reminds me,\nTeam [team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve been thinking about this for\nsome time now, and…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Looking at this mountain\'s\nscenery, I\'ve finally made up my mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Um...[K] I…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was deeply moved while\nclimbing the mountain with you,\nTeam [team:]. I won\'t forget it…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What do you think...\nThat is...letting me join Team [team:]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Th-thank you so very much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so incredibly happy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so glad I finally brought\nmyself to ask!</t>
+  </si>
+  <si>
+    <t>[CN][c_name:NPC_NEW_FRIEND] joined the team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh... I see...\nThat\'s too bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I\'ll always be here\nwaiting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you ever happen to change\nyour mind, just come find me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, Команда [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так рад, что вы снова решили\nвзобраться на гору.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эта гора и вправду особая, верно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь можно забыть о всех печалях\nи невзгодах...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю почему, но в этом месте\nвсе становятся честными и открытыми.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Довольно странновато...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К слову, Команда [team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уже давно над этим думал и вот...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Глядя на этот горный пейзаж, я\nнаконец решился.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Меня глубоко тронуло наше\nвосхождение, Команда [team:].\nЯ этого не забуду...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что скажешь... Позволишь ли ты\nмне... Вступить в твою Команду\n[team:]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Правда?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я невероятно счастлив!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так рад, что я наконец\nспросил об этом!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох... Понятно... Очень жаль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, тогда, я буду ждать здесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если ты передумаешь, приходи,\nя буду тут.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-спасибо тебе огромное!</t>
+  </si>
+  <si>
+    <t>[CN][c_name:NPC_NEW_FRIEND] вступает в вашу команду!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, Ëïíàîäà [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë ñàä, œóï âú òîïâà ñåšéìé\nâèïáñàóûòÿ îà ãïñô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóà ãïñà é âðñàâäô ïòïáàÿ, âåñîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû íïçîï èàáúóû ï âòåö ðåœàìÿö\né îåâèãïäàö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý ðïœåíô, îï â üóïí íåòóå\nâòå òóàîïâÿóòÿ œåòóîúíé é ïóëñúóúíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïâïìûîï òóñàîîïâàóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ë òìïâô, Ëïíàîäà [team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôçå äàâîï îàä üóéí äôíàì é âïó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãìÿäÿ îà üóïó ãïñîúê ðåêèàç, ÿ\nîàëïîåø ñåšéìòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íåîÿ ãìôáïëï óñïîôìï îàšå\nâïòöïçäåîéå, Ëïíàîäà [team:].\nŸ üóïãï îå èàáôäô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï òëàçåšû... Ðïèâïìéšû ìé óú\níîå... Âòóôðéóû â óâïý Ëïíàîäô\n[team:]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñàâäà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò-òðàòéáï óåáå ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îåâåñïÿóîï òœàòóìéâ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë ñàä, œóï ÿ îàëïîåø\nòðñïòéì ïá üóïí!</t>
+  </si>
+  <si>
+    <t>[CN][c_name:NPC_NEW_FRIEND] âòóôðàåó â âàšô ëïíàîäô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö... Ðïîÿóîï... Ïœåîû çàìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, óïãäà, ÿ áôäô çäàóû èäåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óú ðåñåäôíàåšû, ðñéöïäé,\nÿ áôäô óôó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üí...[K] Íåîÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эм...[K] Меня...</t>
+  </si>
+  <si>
+    <t>136, 30</t>
+  </si>
+  <si>
+    <t>139, 33</t>
+  </si>
+  <si>
+    <t>149, 42</t>
+  </si>
+  <si>
+    <t>152, 45</t>
+  </si>
+  <si>
+    <t>155, 48</t>
+  </si>
+  <si>
+    <t>158, 51</t>
+  </si>
+  <si>
+    <t>163, 56</t>
+  </si>
+  <si>
+    <t>178, 70</t>
+  </si>
+  <si>
+    <t>182, 73</t>
+  </si>
+  <si>
+    <t>185, 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I knew it was going to be a\nbother. That\'s why I hesitated for so long…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so glad I blurted out my\nrequest!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знал, что это будет трудно.\nИменно поэтому я так долго колебался...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рад, что рассказал о своём\nжелании!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàì, œóï üóï áôäåó óñôäîï.\nÉíåîîï ðïüóïíô ÿ óàë äïìãï ëïìåáàìòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàä, œóï ñàòòëàèàì ï òâïæí\nçåìàîéé!</t>
   </si>
 </sst>
 </file>
@@ -737,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,39 +1488,355 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8">
         <v>240</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B38" s="4">
         <v>261</v>
       </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="4">
+        <v>92</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>95</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>109</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>112</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>115</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>124</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>127</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>130</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>133</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>22</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
